--- a/merlin-smarthome/examples/openhab-knx/OpenHab-KNX-Definitions.xlsx
+++ b/merlin-smarthome/examples/openhab-knx/OpenHab-KNX-Definitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/OpenHab-KNX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-smarthome/examples/openhab-knx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338407AD-77CE-1240-803D-6130AB588299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCB8B2A-2E8F-9247-99F1-96A7D26CA4AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="KNX_Channel_Types">Defs!$A$2:$A$15</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -867,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111F246E-EEF3-DD4C-B295-A2DBE68EE3E6}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -952,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F80EB2E-8ED2-9847-988B-ED1FA1785CF9}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/merlin-smarthome/examples/openhab-knx/OpenHab-KNX-Definitions.xlsx
+++ b/merlin-smarthome/examples/openhab-knx/OpenHab-KNX-Definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-smarthome/examples/openhab-knx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCB8B2A-2E8F-9247-99F1-96A7D26CA4AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8D97ED-EBF6-9C49-ABAF-77888499C5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
@@ -951,9 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F80EB2E-8ED2-9847-988B-ED1FA1785CF9}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
